--- a/doc/Sequences.xlsx
+++ b/doc/Sequences.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
   <si>
     <t>Frame</t>
   </si>
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -758,25 +758,25 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -785,34 +785,34 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V10" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
@@ -826,93 +826,247 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2">
         <f t="shared" ref="D11" si="6">IF(D10=10,IF(F10=10,B11+D10+F10+H10,B11+SUM(D10:G10)),IF(SUM(D10+E10)=10,B11+SUM(D10:F10),B11+SUM(D10:E10)))</f>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2">
         <f t="shared" ref="F11" si="7">IF(F10=10,IF(H10=10,D11+F10+H10+J10,D11+SUM(F10:I10)),IF(SUM(F10+G10)=10,D11+SUM(F10:H10),D11+SUM(F10:G10)))</f>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2">
         <f t="shared" ref="H11" si="8">IF(H10=10,IF(J10=10,F11+H10+J10+L10,F11+SUM(H10:K10)),IF(SUM(H10+I10)=10,F11+SUM(H10:J10),F11+SUM(H10:I10)))</f>
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2">
         <f>IF(J10=10,IF(L10=10,H11+J10+L10+N10,H11+SUM(J10:M10)),IF(SUM(J10+K10)=10,H11+SUM(J10:L10),H11+SUM(J10:K10)))</f>
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2">
-        <f t="shared" ref="L11" si="9">IF(L10=10,J11+L10+N10+P10,IF(SUM(L10+M10)=10,J11+SUM(L10:N10),J11+SUM(L10:M10)))</f>
-        <v>5</v>
+        <f t="shared" ref="L11" si="9">IF(L10=10,IF(N10=10,J11+L10+N10+P10,J11+SUM(L10:O10)),IF(SUM(L10+M10)=10,J11+SUM(L10:N10),J11+SUM(L10:M10)))</f>
+        <v>61</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2">
-        <f t="shared" ref="N11" si="10">IF(N10=10,L11+N10+P10+R10,IF(SUM(N10+O10)=10,L11+SUM(N10:P10),L11+SUM(N10:O10)))</f>
-        <v>5</v>
+        <f t="shared" ref="N11" si="10">IF(N10=10,IF(P10=10,L11+N10+P10+R10,L11+SUM(N10:Q10)),IF(SUM(N10+O10)=10,L11+SUM(N10:P10),L11+SUM(N10:O10)))</f>
+        <v>77</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2">
-        <f t="shared" ref="P11" si="11">IF(P10=10,N11+P10+R10+T10,IF(SUM(P10+Q10)=10,N11+SUM(P10:R10),N11+SUM(P10:Q10)))</f>
-        <v>5</v>
+        <f t="shared" ref="P11" si="11">IF(P10=10,IF(R10=10,N11+P10+R10+T10,N11+SUM(P10:S10)),IF(SUM(P10+Q10)=10,N11+SUM(P10:R10),N11+SUM(P10:Q10)))</f>
+        <v>97</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2">
-        <f>IF(R10=10,P11+R10+T10+U10,IF(SUM(R10+S10)=10,P11+SUM(R10:T10),P11+SUM(R10:S10)))</f>
-        <v>5</v>
+        <f t="shared" ref="R11" si="12">IF(R10=10,IF(T10=10,P11+R10+T10+V10,P11+SUM(R10:U10)),IF(SUM(R10+S10)=10,P11+SUM(R10:T10),P11+SUM(R10:S10)))</f>
+        <v>117</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2">
         <f>R11+SUM(T10:V10)</f>
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
     </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
+        <v>4</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2">
+        <v>5</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2">
+        <v>6</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2">
+        <v>7</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2">
+        <v>9</v>
+      </c>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2">
+        <v>10</v>
+      </c>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>10</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2">
+        <f>IF(B14=10,IF(D14=10,0+B14+D14+F14,0+SUM(B14:E14)),IF(SUM(B14+C14)=10,0+SUM(B14:D14),0+SUM(B14:C14)))</f>
+        <v>11</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
+        <f t="shared" ref="D15" si="13">IF(D14=10,IF(F14=10,B15+D14+F14+H14,B15+SUM(D14:G14)),IF(SUM(D14+E14)=10,B15+SUM(D14:F14),B15+SUM(D14:E14)))</f>
+        <v>12</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
+        <f t="shared" ref="F15" si="14">IF(F14=10,IF(H14=10,D15+F14+H14+J14,D15+SUM(F14:I14)),IF(SUM(F14+G14)=10,D15+SUM(F14:H14),D15+SUM(F14:G14)))</f>
+        <v>12</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
+        <f t="shared" ref="H15" si="15">IF(H14=10,IF(J14=10,F15+H14+J14+L14,F15+SUM(H14:K14)),IF(SUM(H14+I14)=10,F15+SUM(H14:J14),F15+SUM(H14:I14)))</f>
+        <v>12</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2">
+        <f>IF(J14=10,IF(L14=10,H15+J14+L14+N14,H15+SUM(J14:M14)),IF(SUM(J14+K14)=10,H15+SUM(J14:L14),H15+SUM(J14:K14)))</f>
+        <v>12</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2">
+        <f t="shared" ref="L15" si="16">IF(L14=10,IF(N14=10,J15+L14+N14+P14,J15+SUM(L14:O14)),IF(SUM(L14+M14)=10,J15+SUM(L14:N14),J15+SUM(L14:M14)))</f>
+        <v>12</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2">
+        <f t="shared" ref="N15" si="17">IF(N14=10,IF(P14=10,L15+N14+P14+R14,L15+SUM(N14:Q14)),IF(SUM(N14+O14)=10,L15+SUM(N14:P14),L15+SUM(N14:O14)))</f>
+        <v>12</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2">
+        <f t="shared" ref="P15" si="18">IF(P14=10,IF(R14=10,N15+P14+R14+T14,N15+SUM(P14:S14)),IF(SUM(P14+Q14)=10,N15+SUM(P14:R14),N15+SUM(P14:Q14)))</f>
+        <v>22</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2">
+        <f t="shared" ref="R15" si="19">IF(R14=10,IF(T14=10,P15+R14+T14+V14,P15+SUM(R14:U14)),IF(SUM(R14+S14)=10,P15+SUM(R14:T14),P15+SUM(R14:S14)))</f>
+        <v>22</v>
+      </c>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2">
+        <f>R15+SUM(T14:V14)</f>
+        <v>22</v>
+      </c>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
+  <mergeCells count="80">
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="T3:V3"/>
     <mergeCell ref="B1:C1"/>
@@ -929,10 +1083,46 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:V11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
